--- a/data/trans_dic/P13_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04481708921086625</v>
+        <v>0.04665107873415103</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04963643560426648</v>
+        <v>0.05290915070213317</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04479356739267255</v>
+        <v>0.04378866761413778</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08743922568771402</v>
+        <v>0.08566727490617496</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05878906134281717</v>
+        <v>0.05948530309276631</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1233268324973991</v>
+        <v>0.1247730658785613</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06458014463220149</v>
+        <v>0.06638929600873603</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1252291311806065</v>
+        <v>0.1230207747172132</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05876865639788471</v>
+        <v>0.05746296704110206</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09486711945117347</v>
+        <v>0.09416348392008207</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05928074282146837</v>
+        <v>0.05926001616474553</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1130117144790883</v>
+        <v>0.1131170283830725</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08594792566939635</v>
+        <v>0.0885865539844803</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08354951490169391</v>
+        <v>0.087039306073598</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07303432222349061</v>
+        <v>0.0724483033216483</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1432709904685371</v>
+        <v>0.1456157032751074</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09408377661909788</v>
+        <v>0.09410577633759575</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1671059608708007</v>
+        <v>0.1695732432957743</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09696024072814513</v>
+        <v>0.09623099325579543</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.172166312056703</v>
+        <v>0.1700744943959337</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08609170403121841</v>
+        <v>0.0855558046889394</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1221427797804472</v>
+        <v>0.1215281580285653</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08066376008457926</v>
+        <v>0.0804868774659723</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1485401799787337</v>
+        <v>0.1506391779835961</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.01970811499479906</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04926954635115818</v>
+        <v>0.04926954635115819</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.03549324370642155</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01551757386121991</v>
+        <v>0.0152084716706687</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02914645382690572</v>
+        <v>0.02854660045920623</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01151318469228743</v>
+        <v>0.01211020609620754</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03680054661343968</v>
+        <v>0.03726318010930755</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02508046989252845</v>
+        <v>0.02551997766316167</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0709047253958722</v>
+        <v>0.07228274127987548</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03644545149579485</v>
+        <v>0.03564717853918149</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0659625504140311</v>
+        <v>0.06659458924648336</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02335674542225374</v>
+        <v>0.02293955820367149</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05478914144876647</v>
+        <v>0.05479725078152507</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02660076805181978</v>
+        <v>0.02710407232024078</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05596202230627492</v>
+        <v>0.05574762336691706</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03623632767351546</v>
+        <v>0.03515980761673763</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05799767186702127</v>
+        <v>0.05766668019913102</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03076051270104473</v>
+        <v>0.03068897589073963</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06521767758014177</v>
+        <v>0.06567892917652227</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04861951635785385</v>
+        <v>0.04767696174365467</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1073866779976628</v>
+        <v>0.1065419263828853</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06526521575712503</v>
+        <v>0.06423288420502371</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09066508424109927</v>
+        <v>0.09190795726893178</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03795307953146946</v>
+        <v>0.03736892749518001</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.079222617528648</v>
+        <v>0.07812510187109752</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04452130799043531</v>
+        <v>0.04486814596344016</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07539764835162897</v>
+        <v>0.07475428077393781</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.02273643952657683</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.02918938531490812</v>
+        <v>0.02918938531490813</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03586868657141205</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01269782173476335</v>
+        <v>0.01317798613011164</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02498384251271671</v>
+        <v>0.02429347587491651</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01374687572807673</v>
+        <v>0.01349129067490887</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02008100261617723</v>
+        <v>0.01997172846341656</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02563255048080377</v>
+        <v>0.02581300955297618</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03478718616497632</v>
+        <v>0.03427395562663704</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02298813556098898</v>
+        <v>0.0217137218061821</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03785017490661943</v>
+        <v>0.03715747999026617</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02140449178534858</v>
+        <v>0.02016398373743677</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03248143819611293</v>
+        <v>0.03315311383513723</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0199663422467834</v>
+        <v>0.02056041474697442</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03148252655694386</v>
+        <v>0.03175143782848965</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02946801118444463</v>
+        <v>0.03010006068520184</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05109411613763845</v>
+        <v>0.05193123308838245</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03548894751362836</v>
+        <v>0.03517132602899531</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04257229090718362</v>
+        <v>0.04135018069373637</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04852732362092942</v>
+        <v>0.05045686713405952</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06407251324948879</v>
+        <v>0.06454358003711733</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05287311079668643</v>
+        <v>0.05165649606685127</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05998514197913211</v>
+        <v>0.05881583745269136</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03540296894365185</v>
+        <v>0.03513499179902758</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05179932866325208</v>
+        <v>0.05295427555363821</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03896847074145732</v>
+        <v>0.03930835840264459</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04667935116705769</v>
+        <v>0.0469037816154162</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.02644328110031456</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.0469796653715998</v>
+        <v>0.04697966537159979</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03761752949805734</v>
@@ -1105,7 +1105,7 @@
         <v>0.03104238039124736</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04970170248037974</v>
+        <v>0.04970170248037973</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01496966154303308</v>
+        <v>0.0141604252842009</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02045085140433866</v>
+        <v>0.01990444427688139</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01385727379719391</v>
+        <v>0.01512782232741295</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03352306039339491</v>
+        <v>0.03345077367957246</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01975027809833159</v>
+        <v>0.01951150028981754</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04174251596561225</v>
+        <v>0.04227958983022596</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02129027740204168</v>
+        <v>0.02060112746044406</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0419521265147493</v>
+        <v>0.04110370528499049</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02100792448152488</v>
+        <v>0.02173857177457319</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03593119276364126</v>
+        <v>0.0358546639825849</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02135387638289438</v>
+        <v>0.02081595468165924</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04065879645313326</v>
+        <v>0.04139877780338701</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04862050510303439</v>
+        <v>0.04940714994630546</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05338188090665089</v>
+        <v>0.05249588910529722</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04495149763309246</v>
+        <v>0.04719223606190262</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06410431826559498</v>
+        <v>0.06658280100338233</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0640476488989335</v>
+        <v>0.06304170926312136</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08991213797262057</v>
+        <v>0.08681831561600568</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0572441130386122</v>
+        <v>0.05829215051538803</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06621670723635759</v>
+        <v>0.06556313460813291</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04637036180202593</v>
+        <v>0.04960907468022877</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06456312189505237</v>
+        <v>0.0636792179372026</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0451143688666055</v>
+        <v>0.04484346534668025</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05970497414886229</v>
+        <v>0.06046245492667794</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.0552421548457229</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.07455204004507042</v>
+        <v>0.07455204004507043</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.03868369597125082</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02435629031860547</v>
+        <v>0.02446973578920969</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03951936914044513</v>
+        <v>0.03976611324709761</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02821710997754026</v>
+        <v>0.0287397130302158</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04493398835754148</v>
+        <v>0.04488529788151724</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03982368334827233</v>
+        <v>0.03964882068922346</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08329799576353925</v>
+        <v>0.08299624716040618</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04863447123742745</v>
+        <v>0.04653339618337424</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06720734300485609</v>
+        <v>0.06797189098641795</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03412506206942692</v>
+        <v>0.03414673720017442</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0641263177833598</v>
+        <v>0.06426403538749779</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04003129994981421</v>
+        <v>0.03998914318397341</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05881213942076798</v>
+        <v>0.05884798759895624</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03641278228927766</v>
+        <v>0.03700571593387798</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05554587670371644</v>
+        <v>0.05571806935741565</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04105576730194282</v>
+        <v>0.041444372957734</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0601059914278035</v>
+        <v>0.06025054833502338</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05436548334181978</v>
+        <v>0.05457954372427065</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1024325629287775</v>
+        <v>0.1039464638292572</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06474646977133844</v>
+        <v>0.06363406877124793</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08159886325243555</v>
+        <v>0.08170620086485252</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04387039687340176</v>
+        <v>0.04400472095489219</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07653274622436143</v>
+        <v>0.07696834235561202</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05094152909445799</v>
+        <v>0.05053020595577659</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06903977445518628</v>
+        <v>0.06874850288908278</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>26179</v>
+        <v>27251</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>51719</v>
+        <v>55129</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>50527</v>
+        <v>49393</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>43528</v>
+        <v>42646</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>54223</v>
+        <v>54865</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>137992</v>
+        <v>139610</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>81231</v>
+        <v>83506</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>77900</v>
+        <v>76526</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>88533</v>
+        <v>86566</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>204995</v>
+        <v>203475</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>141434</v>
+        <v>141384</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>126558</v>
+        <v>126676</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>50206</v>
+        <v>51747</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>87055</v>
+        <v>90691</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>82382</v>
+        <v>81721</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>71321</v>
+        <v>72488</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>86777</v>
+        <v>86797</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>186976</v>
+        <v>189737</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>121959</v>
+        <v>121042</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>107098</v>
+        <v>105797</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>129695</v>
+        <v>128888</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>263934</v>
+        <v>262606</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>192450</v>
+        <v>192028</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>166345</v>
+        <v>168696</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16726</v>
+        <v>16393</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>28478</v>
+        <v>27892</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10452</v>
+        <v>10994</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>35297</v>
+        <v>35741</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>26524</v>
+        <v>26988</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>77511</v>
+        <v>79017</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>36597</v>
+        <v>35795</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>73444</v>
+        <v>74148</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>49877</v>
+        <v>48986</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>113427</v>
+        <v>113443</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>50861</v>
+        <v>51823</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>115985</v>
+        <v>115541</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>39059</v>
+        <v>37899</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>56668</v>
+        <v>56345</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>27926</v>
+        <v>27861</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>62553</v>
+        <v>62996</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>51417</v>
+        <v>50420</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>117391</v>
+        <v>116468</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>65536</v>
+        <v>64499</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>100949</v>
+        <v>102333</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>81046</v>
+        <v>79799</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>164010</v>
+        <v>161737</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>85125</v>
+        <v>85788</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>156267</v>
+        <v>154934</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14242</v>
+        <v>14780</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>22114</v>
+        <v>21503</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11324</v>
+        <v>11114</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>21001</v>
+        <v>20887</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>25477</v>
+        <v>25657</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>30434</v>
+        <v>29985</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>17725</v>
+        <v>16743</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>39635</v>
+        <v>38910</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>45282</v>
+        <v>42658</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>57167</v>
+        <v>58349</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>31843</v>
+        <v>32790</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>65892</v>
+        <v>66455</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33051</v>
+        <v>33760</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45224</v>
+        <v>45965</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29234</v>
+        <v>28973</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>44523</v>
+        <v>43245</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>48233</v>
+        <v>50151</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>56055</v>
+        <v>56467</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>40768</v>
+        <v>39830</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>62814</v>
+        <v>61590</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>74896</v>
+        <v>74329</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>91166</v>
+        <v>93198</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>62148</v>
+        <v>62690</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>97699</v>
+        <v>98168</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6694</v>
+        <v>6333</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10267</v>
+        <v>9993</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7021</v>
+        <v>7665</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>32716</v>
+        <v>32646</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6738</v>
+        <v>6657</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>18898</v>
+        <v>19141</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10405</v>
+        <v>10068</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>38119</v>
+        <v>37349</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>16562</v>
+        <v>17138</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>34307</v>
+        <v>34234</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>21256</v>
+        <v>20721</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>76624</v>
+        <v>78019</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>21743</v>
+        <v>22095</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26801</v>
+        <v>26356</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>22777</v>
+        <v>23912</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>62561</v>
+        <v>64980</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21850</v>
+        <v>21507</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>40706</v>
+        <v>39306</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>27976</v>
+        <v>28488</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>60167</v>
+        <v>59573</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>36556</v>
+        <v>39110</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>61644</v>
+        <v>60800</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>44908</v>
+        <v>44638</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>112518</v>
+        <v>113946</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>78691</v>
+        <v>79058</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>134611</v>
+        <v>135451</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>94988</v>
+        <v>96747</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>156312</v>
+        <v>156142</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>132014</v>
+        <v>131435</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>294847</v>
+        <v>293779</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>171279</v>
+        <v>163879</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>248082</v>
+        <v>250904</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>223376</v>
+        <v>223518</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>445413</v>
+        <v>446370</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>275738</v>
+        <v>275448</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>421682</v>
+        <v>421939</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>117643</v>
+        <v>119559</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>189201</v>
+        <v>189787</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>138206</v>
+        <v>139515</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>209090</v>
+        <v>209593</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>180220</v>
+        <v>180929</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>362577</v>
+        <v>367936</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>228021</v>
+        <v>224104</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>301205</v>
+        <v>301601</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>287167</v>
+        <v>288046</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>531587</v>
+        <v>534612</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>350889</v>
+        <v>348055</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>495014</v>
+        <v>492926</v>
       </c>
     </row>
     <row r="24">
